--- a/기획/붕괴 스타레일/보상 아이템.xlsx
+++ b/기획/붕괴 스타레일/보상 아이템.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\붕괴 스타레일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhgki\Documents\GitHub\unityenginebasic_9th\기획\붕괴 스타레일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61E68CC-74FB-4260-8CCF-889B549823BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB51CC29-6126-4ABF-B5DD-21678370362B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CD29C25-8768-4271-BFE8-B828135F2466}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CD29C25-8768-4271-BFE8-B828135F2466}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,42 +246,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -301,9 +298,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -341,7 +338,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -447,7 +444,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -589,7 +586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -600,339 +597,341 @@
   <dimension ref="D4:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="10.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="7" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="7" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="7" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="7" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="7" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="8" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="7" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="8" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="7" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="8" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="7" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="8" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="4" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="4" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="4" t="s">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="4" t="s">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="4" t="s">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F8"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="H6:H7"/>
@@ -947,8 +946,6 @@
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="D9:D21"/>
     <mergeCell ref="E20:F21"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
